--- a/TestSpeed.xlsx
+++ b/TestSpeed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lavori\WPC2019\WPC2019-gRPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2199122-9251-48BF-A2D3-BDF33EBA9F01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B168E17-BAEF-40CB-A35D-524F72950964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="25396" windowHeight="14775" xr2:uid="{3C0D35BA-4398-42EA-8084-02DF05369E9F}"/>
   </bookViews>
@@ -1092,16 +1092,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1037724</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>473744</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>208046</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>122070</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>518862</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142122</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1429,7 +1429,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
